--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>30.63782527725722</v>
+        <v>11.09624614696445</v>
       </c>
       <c r="R2">
-        <v>275.740427495315</v>
+        <v>99.86621532268002</v>
       </c>
       <c r="S2">
-        <v>0.2778579103134022</v>
+        <v>0.1049087982739066</v>
       </c>
       <c r="T2">
-        <v>0.2956633915798206</v>
+        <v>0.1119248720569455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>26.01102462464267</v>
+        <v>12.65212704448267</v>
       </c>
       <c r="R3">
-        <v>234.099221621784</v>
+        <v>113.869143400344</v>
       </c>
       <c r="S3">
-        <v>0.23589693073544</v>
+        <v>0.1196187815469991</v>
       </c>
       <c r="T3">
-        <v>0.2510135001225699</v>
+        <v>0.1276186272318172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>14.08200195935033</v>
+        <v>8.628373530017781</v>
       </c>
       <c r="R4">
-        <v>126.738017634153</v>
+        <v>77.65536177016001</v>
       </c>
       <c r="S4">
-        <v>0.127711271999414</v>
+        <v>0.08157644361018257</v>
       </c>
       <c r="T4">
-        <v>0.1358951695121074</v>
+        <v>0.08703209992065344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H5">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>19.10166678367233</v>
+        <v>9.548558554386501</v>
       </c>
       <c r="R5">
-        <v>114.610000702034</v>
+        <v>57.291351326319</v>
       </c>
       <c r="S5">
-        <v>0.1732351812827254</v>
+        <v>0.09027627811435648</v>
       </c>
       <c r="T5">
-        <v>0.1228908717678141</v>
+        <v>0.06420917370753218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H6">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>15.89641395329967</v>
+        <v>8.849588089321333</v>
       </c>
       <c r="R6">
-        <v>143.067725579697</v>
+        <v>79.646292803892</v>
       </c>
       <c r="S6">
-        <v>0.1441663800406682</v>
+        <v>0.08366790348497782</v>
       </c>
       <c r="T6">
-        <v>0.1534047413893379</v>
+        <v>0.08926343211347409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H7">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>1.314263729533333</v>
+        <v>12.01861196663111</v>
       </c>
       <c r="R7">
-        <v>11.8283735658</v>
+        <v>108.16750769968</v>
       </c>
       <c r="S7">
-        <v>0.01191920673821149</v>
+        <v>0.1136292509773308</v>
       </c>
       <c r="T7">
-        <v>0.0126830043643018</v>
+        <v>0.1212285297974629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H8">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>1.11578892832</v>
+        <v>13.70382411188266</v>
       </c>
       <c r="R8">
-        <v>10.04210035488</v>
+        <v>123.334417006944</v>
       </c>
       <c r="S8">
-        <v>0.01011921626839373</v>
+        <v>0.1295619888287976</v>
       </c>
       <c r="T8">
-        <v>0.01076766826133679</v>
+        <v>0.138226814735265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H9">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>0.6040723924400001</v>
+        <v>9.345599582684445</v>
       </c>
       <c r="R9">
-        <v>5.43665153196</v>
+        <v>84.11039624416</v>
       </c>
       <c r="S9">
-        <v>0.005478401000151598</v>
+        <v>0.08835741460518717</v>
       </c>
       <c r="T9">
-        <v>0.00582946376553446</v>
+        <v>0.09426656760615855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H10">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>0.81939979748</v>
+        <v>10.342274187674</v>
       </c>
       <c r="R10">
-        <v>4.91639878488</v>
+        <v>62.053645126044</v>
       </c>
       <c r="S10">
-        <v>0.0074312296443581</v>
+        <v>0.0977804152934135</v>
       </c>
       <c r="T10">
-        <v>0.005271621402419227</v>
+        <v>0.06954650548194212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H11">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>0.6819048055600001</v>
+        <v>9.585202410021331</v>
       </c>
       <c r="R11">
-        <v>6.13714325004</v>
+        <v>86.26682169019199</v>
       </c>
       <c r="S11">
-        <v>0.006184271977235147</v>
+        <v>0.09062272526484838</v>
       </c>
       <c r="T11">
-        <v>0.006580567834757778</v>
+        <v>0.09668337734874882</v>
       </c>
     </row>
   </sheetData>
